--- a/biology/Zoologie/Eueides_tales/Eueides_tales.xlsx
+++ b/biology/Zoologie/Eueides_tales/Eueides_tales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides tales est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Eueides.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eueides tales a été décrit par Pieter Cramer en 1775 sous le nom de Papilio tales[1].
-Sous-espèces
-Eueides tales tales au Surinam.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides tales a été décrit par Pieter Cramer en 1775 sous le nom de Papilio tales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eueides_tales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_tales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eueides tales tales au Surinam.
 Eueides tales barcellinus Zikán, 1937 ; au Brésil.
 Eueides tales calathus Stichel, 1909 ; en Équateur.
 Eueides tales cognata Weymer, 1890 ; en Colombie.
@@ -523,48 +572,11 @@
 Eueides tales guyanensis Lacomme, 2011
 Eueides tales michaeli Zikán, 1937  ; au Pérou.
 Eueides tales pseudeanes Boullet &amp; Le Cerf, 1910 ; au Venezuela.
-Eueides tales pythagoras Kirby, [1900] ; en Colombie.
+Eueides tales pythagoras Kirby,  ; en Colombie.
 Eueides tales surdus Stichel, 1903 ; en Guyana et au Brésil.
 Eueides tales tabernula Lamas, 1985 ; au Pérou.
 Eueides tales xenophanes C. et R. Felder, 1865 ; en Colombie.
-Eueides tales ssp en Guyane et au Brésil[1].
-Noms vernaculaires
-Eueides tales se nomme  en anglais.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eueides_tales</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_tales</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon orange et marron d'une envergure d'environ 65 mm. Sur le dessus la partie basale des ailes est orange aux antérieures avec un groupe de taches jaunes dans la partie marron et les postérieures sont marron avec des veines orange partant de la partie basale plus ou moins marquées suivant les sous-espèces[2].
-Le revers est semblable en plus terne
-Chenille
-Son corps est blanc avec des points noirs et sa tête est orange[3].
-</t>
+Eueides tales ssp en Guyane et au Brésil.</t>
         </is>
       </c>
     </row>
@@ -589,13 +601,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides tales se nomme  en anglais.
 </t>
         </is>
       </c>
@@ -621,14 +638,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon orange et marron d'une envergure d'environ 65 mm. Sur le dessus la partie basale des ailes est orange aux antérieures avec un groupe de taches jaunes dans la partie marron et les postérieures sont marron avec des veines orange partant de la partie basale plus ou moins marquées suivant les sous-espèces.
+Le revers est semblable en plus terne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides_tales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_tales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps est blanc avec des points noirs et sa tête est orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eueides_tales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_tales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eueides_tales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_tales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le nord de l'Amérique du Sud, en Guyane, en Guyana, au Surinam, en Colombie, au Venezuela, en Équateur, au Pérou et au Brésil[1].
-Biotope
-Son habitat est la forêt jusqu'à 1200 mètres d'altitude[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le nord de l'Amérique du Sud, en Guyane, en Guyana, au Surinam, en Colombie, au Venezuela, en Équateur, au Pérou et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eueides_tales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_tales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt jusqu'à 1200 mètres d'altitude.
 Sur les autres projets Wikimedia :
 Eueides tales, sur Wikimedia CommonsEueides tales, sur Wikispecies
 </t>
